--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadshokriyan/eclipse-workspace/teamworkproject/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19B0C27-4354-A84E-96AA-BC97CA6BFD0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DD1411-9C89-4D48-9142-994F964C0CF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{944F597D-CC7E-1B41-BDDC-62A3F2EC804A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="employeeLlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Shokriyan</t>
+  </si>
+  <si>
+    <t>Tannaz</t>
+  </si>
+  <si>
+    <t>Nazar</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +394,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D2D845-51EF-DD43-8431-865B6BBEC133}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>